--- a/doc/report.xlsx
+++ b/doc/report.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="0" windowWidth="20760" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="8360" yWindow="0" windowWidth="8000" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="report.txt" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" calcMode="manual" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">report.txt!$A$1:$O$39</definedName>
+  </definedNames>
+  <calcPr calcId="140001" calcMode="manual" calcCompleted="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>NOOP</t>
   </si>
@@ -152,6 +155,40 @@
   </si>
   <si>
     <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1くらい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1〜1.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.5〜3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3〜5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.5〜7.5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10倍以上</t>
+    <rPh sb="2" eb="3">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -160,10 +197,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0.000000_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.000000_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,6 +221,24 @@
       <color theme="1"/>
       <name val="メイリオ"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -239,29 +294,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -590,13 +653,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O19" sqref="O19"/>
+      <selection pane="bottomRight" activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -611,7 +674,7 @@
     <col min="15" max="16384" width="12.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -651,8 +714,11 @@
       <c r="N1" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -696,7 +762,7 @@
         <v>-6.9179807011171296E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -739,8 +805,11 @@
       <c r="N3" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -783,8 +852,11 @@
       <c r="N4" s="10">
         <v>0.90908628569274996</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -827,8 +899,11 @@
       <c r="N5" s="10">
         <v>0.98606977742420399</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -871,8 +946,11 @@
       <c r="N6" s="10">
         <v>1.0649690150045801</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -915,8 +993,11 @@
       <c r="N7" s="13">
         <v>4.5942783138305101</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -959,8 +1040,11 @@
       <c r="N8" s="13">
         <v>4.48059011796457</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1003,8 +1087,11 @@
       <c r="N9" s="11">
         <v>1.2639229103929801</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1047,8 +1134,11 @@
       <c r="N10" s="13">
         <v>4.8630458759639303</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1091,8 +1181,11 @@
       <c r="N11" s="13">
         <v>4.6639748700497003</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1135,8 +1228,11 @@
       <c r="N12" s="15">
         <v>25.369969167463299</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1179,8 +1275,11 @@
       <c r="N13" s="11">
         <v>1.5372701996739599</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1223,8 +1322,11 @@
       <c r="N14" s="11">
         <v>1.5501375604102601</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1267,8 +1369,11 @@
       <c r="N15" s="11">
         <v>1.499414919094</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1311,8 +1416,11 @@
       <c r="N16" s="14">
         <v>6.7571621565510398</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1355,8 +1463,11 @@
       <c r="N17" s="13">
         <v>4.6134032438709003</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1399,8 +1510,11 @@
       <c r="N18" s="12">
         <v>2.8704597641272001</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1443,8 +1557,11 @@
       <c r="N19" s="14">
         <v>6.47329088487243</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1487,8 +1604,11 @@
       <c r="N20" s="12">
         <v>2.6245659742210701</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1531,8 +1651,11 @@
       <c r="N21" s="11">
         <v>1.66019355137131</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1575,8 +1698,11 @@
       <c r="N22" s="11">
         <v>1.6482602785359</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1619,8 +1745,11 @@
       <c r="N23" s="12">
         <v>2.6186755795279302</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1663,8 +1792,11 @@
       <c r="N24" s="12">
         <v>2.4887204885944998</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1707,8 +1839,11 @@
       <c r="N25" s="10">
         <v>1.11027809423908</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1751,8 +1886,11 @@
       <c r="N26" s="11">
         <v>1.43317412712425</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1795,8 +1933,11 @@
       <c r="N27" s="10">
         <v>1.1435291509515899</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1839,8 +1980,11 @@
       <c r="N28" s="12">
         <v>2.3443910301800202</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1883,8 +2027,11 @@
       <c r="N29" s="15">
         <v>17.240715501531099</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1927,8 +2074,11 @@
       <c r="N30" s="13">
         <v>4.1967596209762403</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1971,8 +2121,11 @@
       <c r="N31" s="13">
         <v>4.0622637820236998</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2015,8 +2168,11 @@
       <c r="N32" s="13">
         <v>3.8254747423950599</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2059,8 +2215,11 @@
       <c r="N33" s="12">
         <v>1.9539374667362499</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2103,8 +2262,11 @@
       <c r="N34" s="12">
         <v>2.87524311529689</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2147,8 +2309,11 @@
       <c r="N35" s="15">
         <v>23.228481050561498</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2191,8 +2356,11 @@
       <c r="N36" s="14">
         <v>7.7481131547812101</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2236,7 +2404,7 @@
         <v>25.1301120824306</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2279,8 +2447,11 @@
       <c r="N38" s="12">
         <v>2.1278006121917401</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2323,13 +2494,18 @@
       <c r="N39" s="11">
         <v>1.6671730540755101</v>
       </c>
+      <c r="O39" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:N40">
-    <sortCondition ref="A2:A40"/>
+  <autoFilter ref="A1:O39"/>
+  <sortState ref="A2:O39">
+    <sortCondition ref="A2:A39"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
